--- a/Testing/BiLSTM_ETH_result.xlsx
+++ b/Testing/BiLSTM_ETH_result.xlsx
@@ -437,13 +437,13 @@
         <v>50</v>
       </c>
       <c r="E1" t="n">
-        <v>33.68467402845758</v>
+        <v>61.37303209496093</v>
       </c>
       <c r="F1" t="n">
-        <v>29.02312260362249</v>
+        <v>53.74167304668848</v>
       </c>
       <c r="G1" t="n">
-        <v>2.217778739652752</v>
+        <v>4.180976183456051</v>
       </c>
     </row>
     <row r="2">
@@ -462,13 +462,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>31.02367085690337</v>
+        <v>39.61880299362649</v>
       </c>
       <c r="F2" t="n">
-        <v>26.6428994966153</v>
+        <v>34.10618090773638</v>
       </c>
       <c r="G2" t="n">
-        <v>2.026875102261301</v>
+        <v>2.625628550649294</v>
       </c>
     </row>
     <row r="3">
@@ -487,13 +487,13 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>42.83386991817848</v>
+        <v>51.52500151558979</v>
       </c>
       <c r="F3" t="n">
-        <v>37.13555974292301</v>
+        <v>45.0248130041528</v>
       </c>
       <c r="G3" t="n">
-        <v>2.881018761231744</v>
+        <v>3.488860442390548</v>
       </c>
     </row>
     <row r="4">
@@ -512,13 +512,13 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>23.19479854448587</v>
+        <v>43.70541721693545</v>
       </c>
       <c r="F4" t="n">
-        <v>19.55008222121527</v>
+        <v>37.81183640384133</v>
       </c>
       <c r="G4" t="n">
-        <v>1.443108471173862</v>
+        <v>2.929328669425791</v>
       </c>
     </row>
     <row r="5">
@@ -537,13 +537,13 @@
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>19.83873152661551</v>
+        <v>18.31436592725522</v>
       </c>
       <c r="F5" t="n">
-        <v>16.18154341247147</v>
+        <v>13.08962441368905</v>
       </c>
       <c r="G5" t="n">
-        <v>1.175660585120952</v>
+        <v>0.8899931218707348</v>
       </c>
     </row>
     <row r="6">
@@ -562,13 +562,13 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>35.88338858357046</v>
+        <v>21.16570674014725</v>
       </c>
       <c r="F6" t="n">
-        <v>30.96003548036365</v>
+        <v>17.59228935098737</v>
       </c>
       <c r="G6" t="n">
-        <v>2.386185223001032</v>
+        <v>1.300825948676739</v>
       </c>
     </row>
     <row r="7">
@@ -587,13 +587,13 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>17.99946430229498</v>
+        <v>15.99338254771937</v>
       </c>
       <c r="F7" t="n">
-        <v>13.8154587057592</v>
+        <v>11.16902266166497</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9869571207561514</v>
+        <v>0.7691197679091978</v>
       </c>
     </row>
     <row r="8">
@@ -612,13 +612,13 @@
         <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>17.65952810022726</v>
+        <v>16.0763393125761</v>
       </c>
       <c r="F8" t="n">
-        <v>12.69803480540048</v>
+        <v>11.66480530462031</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8753756782108595</v>
+        <v>0.8194662102075062</v>
       </c>
     </row>
     <row r="9">
@@ -637,13 +637,13 @@
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>17.07285973777919</v>
+        <v>17.3379099735396</v>
       </c>
       <c r="F9" t="n">
-        <v>12.46763065064769</v>
+        <v>12.17041195906282</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8788786194731122</v>
+        <v>0.8233440583416544</v>
       </c>
     </row>
     <row r="10">
@@ -662,13 +662,13 @@
         <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>111.0321887538128</v>
+        <v>94.17442503541469</v>
       </c>
       <c r="F10" t="n">
-        <v>104.3710030675884</v>
+        <v>87.08969553656776</v>
       </c>
       <c r="G10" t="n">
-        <v>7.974480571651521</v>
+        <v>6.677454172834087</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         <v>60</v>
       </c>
       <c r="E11" t="n">
-        <v>63.7416140564611</v>
+        <v>48.44293066265342</v>
       </c>
       <c r="F11" t="n">
-        <v>59.18885848990256</v>
+        <v>42.34634843021786</v>
       </c>
       <c r="G11" t="n">
-        <v>4.504259513559774</v>
+        <v>3.264735795402925</v>
       </c>
     </row>
     <row r="12">
@@ -712,13 +712,13 @@
         <v>100</v>
       </c>
       <c r="E12" t="n">
-        <v>53.02800189638808</v>
+        <v>149.0119948075852</v>
       </c>
       <c r="F12" t="n">
-        <v>48.07057183738232</v>
+        <v>141.6389246609103</v>
       </c>
       <c r="G12" t="n">
-        <v>3.655489474236913</v>
+        <v>10.77350313869531</v>
       </c>
     </row>
     <row r="13">
@@ -737,13 +737,13 @@
         <v>50</v>
       </c>
       <c r="E13" t="n">
-        <v>126.0037210277941</v>
+        <v>82.91378104695507</v>
       </c>
       <c r="F13" t="n">
-        <v>120.147850436779</v>
+        <v>77.04689117676723</v>
       </c>
       <c r="G13" t="n">
-        <v>9.149896226212592</v>
+        <v>5.905719365952574</v>
       </c>
     </row>
     <row r="14">
@@ -762,13 +762,13 @@
         <v>60</v>
       </c>
       <c r="E14" t="n">
-        <v>48.82597412249797</v>
+        <v>44.02977290303556</v>
       </c>
       <c r="F14" t="n">
-        <v>44.59903161914263</v>
+        <v>39.10055765593264</v>
       </c>
       <c r="G14" t="n">
-        <v>3.427098397479992</v>
+        <v>3.034695479304117</v>
       </c>
     </row>
     <row r="15">
@@ -787,13 +787,13 @@
         <v>100</v>
       </c>
       <c r="E15" t="n">
-        <v>120.7870313721529</v>
+        <v>132.4304716610398</v>
       </c>
       <c r="F15" t="n">
-        <v>115.2529928028934</v>
+        <v>126.4878897399315</v>
       </c>
       <c r="G15" t="n">
-        <v>8.769986019254619</v>
+        <v>9.614687409726114</v>
       </c>
     </row>
     <row r="16">
@@ -812,13 +812,13 @@
         <v>50</v>
       </c>
       <c r="E16" t="n">
-        <v>97.39831923466863</v>
+        <v>94.5588406013091</v>
       </c>
       <c r="F16" t="n">
-        <v>93.48264886433557</v>
+        <v>89.42375431330656</v>
       </c>
       <c r="G16" t="n">
-        <v>7.0697195126856</v>
+        <v>6.81951321156616</v>
       </c>
     </row>
     <row r="17">
@@ -837,13 +837,13 @@
         <v>60</v>
       </c>
       <c r="E17" t="n">
-        <v>99.55300916348041</v>
+        <v>75.12561755973948</v>
       </c>
       <c r="F17" t="n">
-        <v>95.7048620054334</v>
+        <v>67.34368687914538</v>
       </c>
       <c r="G17" t="n">
-        <v>7.230091251066321</v>
+        <v>5.262664463891136</v>
       </c>
     </row>
     <row r="18">
@@ -862,13 +862,13 @@
         <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>52.87929375913382</v>
+        <v>110.248662100765</v>
       </c>
       <c r="F18" t="n">
-        <v>49.13494931021494</v>
+        <v>105.6739213222992</v>
       </c>
       <c r="G18" t="n">
-        <v>3.74717249883856</v>
+        <v>8.002636247866894</v>
       </c>
     </row>
     <row r="19">
@@ -887,13 +887,13 @@
         <v>50</v>
       </c>
       <c r="E19" t="n">
-        <v>65.71360537648472</v>
+        <v>48.19637483882077</v>
       </c>
       <c r="F19" t="n">
-        <v>58.98231454787343</v>
+        <v>41.23773065547336</v>
       </c>
       <c r="G19" t="n">
-        <v>4.533615648765488</v>
+        <v>3.163335639538418</v>
       </c>
     </row>
     <row r="20">
@@ -912,13 +912,13 @@
         <v>60</v>
       </c>
       <c r="E20" t="n">
-        <v>59.18008537114462</v>
+        <v>60.55729254796846</v>
       </c>
       <c r="F20" t="n">
-        <v>52.69087729084142</v>
+        <v>53.31354714108083</v>
       </c>
       <c r="G20" t="n">
-        <v>4.067120221765923</v>
+        <v>4.130183164984218</v>
       </c>
     </row>
     <row r="21">
@@ -937,13 +937,13 @@
         <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>76.00028663782034</v>
+        <v>53.96704856675981</v>
       </c>
       <c r="F21" t="n">
-        <v>69.91594391848292</v>
+        <v>47.0756749671369</v>
       </c>
       <c r="G21" t="n">
-        <v>5.351988795703374</v>
+        <v>3.632580042874116</v>
       </c>
     </row>
     <row r="22">
@@ -962,13 +962,13 @@
         <v>50</v>
       </c>
       <c r="E22" t="n">
-        <v>48.77733758882604</v>
+        <v>40.89467432711445</v>
       </c>
       <c r="F22" t="n">
-        <v>43.45865814730819</v>
+        <v>34.9117848696299</v>
       </c>
       <c r="G22" t="n">
-        <v>3.356895310062998</v>
+        <v>2.718548515539045</v>
       </c>
     </row>
     <row r="23">
@@ -987,13 +987,13 @@
         <v>60</v>
       </c>
       <c r="E23" t="n">
-        <v>50.3915384933195</v>
+        <v>43.63375919622028</v>
       </c>
       <c r="F23" t="n">
-        <v>45.04039189425001</v>
+        <v>37.84224150175903</v>
       </c>
       <c r="G23" t="n">
-        <v>3.485505293379555</v>
+        <v>2.942588423191062</v>
       </c>
     </row>
     <row r="24">
@@ -1012,13 +1012,13 @@
         <v>100</v>
       </c>
       <c r="E24" t="n">
-        <v>49.89204025123428</v>
+        <v>36.54961278683501</v>
       </c>
       <c r="F24" t="n">
-        <v>44.22958764625003</v>
+        <v>30.81670680578168</v>
       </c>
       <c r="G24" t="n">
-        <v>3.434291792286383</v>
+        <v>2.397022159101394</v>
       </c>
     </row>
     <row r="25">
@@ -1037,13 +1037,13 @@
         <v>50</v>
       </c>
       <c r="E25" t="n">
-        <v>26.46678557908984</v>
+        <v>37.64929867106142</v>
       </c>
       <c r="F25" t="n">
-        <v>22.15359517309823</v>
+        <v>31.87346265348654</v>
       </c>
       <c r="G25" t="n">
-        <v>1.711493822394771</v>
+        <v>2.49778464045055</v>
       </c>
     </row>
     <row r="26">
@@ -1062,13 +1062,13 @@
         <v>60</v>
       </c>
       <c r="E26" t="n">
-        <v>22.02406141181427</v>
+        <v>47.77176810964104</v>
       </c>
       <c r="F26" t="n">
-        <v>17.60794472571818</v>
+        <v>41.90355446389906</v>
       </c>
       <c r="G26" t="n">
-        <v>1.351644619254632</v>
+        <v>3.271093721690352</v>
       </c>
     </row>
     <row r="27">
@@ -1087,13 +1087,13 @@
         <v>100</v>
       </c>
       <c r="E27" t="n">
-        <v>29.14145217839918</v>
+        <v>37.9370830713622</v>
       </c>
       <c r="F27" t="n">
-        <v>25.48648995059958</v>
+        <v>32.57494714192091</v>
       </c>
       <c r="G27" t="n">
-        <v>1.943037378328708</v>
+        <v>2.546673937796908</v>
       </c>
     </row>
   </sheetData>
